--- a/interm/summary_water_edited.xlsx
+++ b/interm/summary_water_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Projekte/apo-sub-2/interm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/apo-sub-2/interm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6291E6FE-88D6-6843-B2E8-570C4DBC13D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EDFB17-FBF2-D842-8B81-F7480F0A5C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="4840" windowWidth="38400" windowHeight="24000" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="24680" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -207,9 +207,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -691,7 +691,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1046,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1756,11 +1756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1773,16 +1773,16 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
@@ -1792,51 +1792,51 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>103</v>
+      <c r="B2" s="1">
+        <v>3300</v>
       </c>
       <c r="C2" s="1">
-        <v>3300</v>
+        <v>147750</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1">
-        <v>147750</v>
+      <c r="E2">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>106</v>
+      <c r="B3" s="1">
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>117000</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1">
-        <v>117000</v>
+      <c r="E3">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>112</v>
+      <c r="B4" s="1">
+        <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>228000</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1">
-        <v>228000</v>
+      <c r="E4">
+        <v>112</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -1846,17 +1846,17 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>115</v>
+      <c r="B5" s="1">
+        <v>420</v>
       </c>
       <c r="C5" s="1">
-        <v>420</v>
+        <v>61800</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1">
-        <v>61800</v>
+      <c r="E5">
+        <v>115</v>
       </c>
       <c r="F5">
         <v>82.5</v>
@@ -1866,51 +1866,51 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>101</v>
+      <c r="B6" s="1">
+        <v>270</v>
       </c>
       <c r="C6" s="1">
-        <v>270</v>
+        <v>43300</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1">
-        <v>43300</v>
+      <c r="E6">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>95</v>
+      <c r="B7" s="1">
+        <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>23560</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="1">
-        <v>23560</v>
+      <c r="E7">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>96</v>
+      <c r="B8" s="1">
+        <v>89.1</v>
       </c>
       <c r="C8" s="1">
-        <v>89.1</v>
+        <v>10342.1</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1">
-        <v>10342.1</v>
+      <c r="E8">
+        <v>96</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -1920,34 +1920,34 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>40</v>
+      <c r="B9" s="2">
+        <v>0.13200000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>0.13200000000000001</v>
+        <v>6006</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2">
-        <v>6006</v>
+      <c r="E9">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>84</v>
+      <c r="B10" s="2">
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>638</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2">
-        <v>638</v>
+      <c r="E10">
+        <v>84</v>
       </c>
       <c r="F10">
         <v>1500</v>
@@ -1957,17 +1957,17 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>118</v>
+      <c r="B11" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1320</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2">
-        <v>1320</v>
+      <c r="E11">
+        <v>118</v>
       </c>
       <c r="F11">
         <v>200</v>
@@ -1977,17 +1977,17 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>94</v>
+      <c r="B12" s="2">
+        <v>0.1</v>
       </c>
       <c r="C12" s="2">
-        <v>0.1</v>
+        <v>626</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2">
-        <v>626</v>
+      <c r="E12">
+        <v>94</v>
       </c>
       <c r="F12">
         <v>2000</v>
@@ -1997,34 +1997,34 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>19</v>
+      <c r="B13" s="2">
+        <v>0.5</v>
       </c>
       <c r="C13" s="2">
-        <v>0.5</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2">
-        <v>200</v>
+      <c r="E13">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>106</v>
+      <c r="B14" s="2">
+        <v>0.2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.2</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2">
-        <v>77.099999999999994</v>
+      <c r="E14">
+        <v>106</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -2034,17 +2034,17 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>88</v>
+      <c r="B15" s="2">
+        <v>0.2</v>
       </c>
       <c r="C15" s="2">
-        <v>0.2</v>
+        <v>13.799999999999899</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="2">
-        <v>13.799999999999899</v>
+      <c r="E15">
+        <v>88</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -2054,17 +2054,17 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>10</v>
+      <c r="B16" s="2">
+        <v>0.5</v>
       </c>
       <c r="C16" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="2">
-        <v>5</v>
+      <c r="E16">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
